--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_19_12.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_19_12.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-721893.0775729875</v>
+        <v>-724428.0484488426</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -668,16 +668,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>377.4526047784041</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -722,10 +722,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>347.5567210178666</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -817,25 +817,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>81.00698772617966</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>16.31073923227511</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,16 +862,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>18.88495696422619</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>121.2411052806925</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -883,7 +883,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -908,7 +908,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -947,13 +947,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>109.6870817625072</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>312.2615252432955</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1051,19 +1051,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>147.740296593189</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>96.02073708878972</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
@@ -1072,7 +1072,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1111,13 +1111,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1133,7 +1133,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
@@ -1190,16 +1190,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>2.780673098473298</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>133.3353942071041</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1294,19 +1294,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1336,16 +1336,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1354,10 +1354,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>71.51754261011706</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>217.140038692412</v>
       </c>
     </row>
     <row r="11">
@@ -1385,7 +1385,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1430,7 +1430,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1531,7 +1531,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>122.8327676896534</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1543,10 +1543,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462226</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1579,19 +1579,19 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>136.7848966149565</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>134.4525633547282</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1774,16 +1774,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,19 +1810,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>40.1538165833283</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1904,13 +1904,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="18">
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>173.5740289795526</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2008,19 +2008,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0.8253826161909023</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2056,13 +2056,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2081,7 +2081,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2242,22 +2242,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>41.02686156550395</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>147.6895341487364</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2491,10 +2491,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428212</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>145.2857567969021</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2570,7 +2570,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444125</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2716,10 +2716,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>117.6579322793575</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2728,7 +2728,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2807,7 +2807,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2953,10 +2953,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2968,7 +2968,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,16 +2995,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>9.146142788179931</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>100.0416311957212</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634815</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3202,7 +3202,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428212</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3241,7 +3241,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3424,25 +3424,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545296</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
@@ -3484,10 +3484,10 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445519</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y37" t="n">
         <v>194.3000058600551</v>
@@ -3512,7 +3512,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3661,25 +3661,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308922</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
@@ -3724,7 +3724,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y40" t="n">
         <v>194.3000058600551</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3898,25 +3898,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
@@ -3961,7 +3961,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y43" t="n">
         <v>194.3000058600551</v>
@@ -4141,7 +4141,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4195,7 +4195,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X46" t="n">
         <v>201.4250078969974</v>
@@ -4304,40 +4304,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1904.487375535338</v>
+        <v>1150.146566788942</v>
       </c>
       <c r="C2" t="n">
-        <v>1904.487375535338</v>
+        <v>1150.146566788942</v>
       </c>
       <c r="D2" t="n">
-        <v>1546.221676928587</v>
+        <v>791.8808681821918</v>
       </c>
       <c r="E2" t="n">
-        <v>1160.433424330343</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="F2" t="n">
-        <v>779.1681669784198</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="G2" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
         <v>2120.555556060172</v>
@@ -4370,10 +4370,10 @@
         <v>2277.953133796418</v>
       </c>
       <c r="X2" t="n">
-        <v>1904.487375535338</v>
+        <v>1926.885738828876</v>
       </c>
       <c r="Y2" t="n">
-        <v>1904.487375535338</v>
+        <v>1536.746406853064</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556938</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275811</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.70869461456</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609104</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.93668163599</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686076</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064751</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I3" t="n">
-        <v>827.064395508013</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986304</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978978</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291643</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513959</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068414</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486469</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962572</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609171</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201687</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695167</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373022</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507438</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.071769341961</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577007</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>251.9237935341056</v>
+        <v>1938.777348342274</v>
       </c>
       <c r="C4" t="n">
-        <v>82.9876106061987</v>
+        <v>1938.777348342274</v>
       </c>
       <c r="D4" t="n">
-        <v>82.9876106061987</v>
+        <v>1938.777348342274</v>
       </c>
       <c r="E4" t="n">
-        <v>82.9876106061987</v>
+        <v>1790.864254759881</v>
       </c>
       <c r="F4" t="n">
-        <v>82.9876106061987</v>
+        <v>1643.974307261971</v>
       </c>
       <c r="G4" t="n">
-        <v>82.9876106061987</v>
+        <v>1562.149067134517</v>
       </c>
       <c r="H4" t="n">
-        <v>82.9876106061987</v>
+        <v>1562.149067134517</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>1509.946022399798</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279955</v>
+        <v>1713.933205348674</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764916</v>
+        <v>2030.49300379717</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760407</v>
+        <v>2374.650049396719</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581906</v>
+        <v>2716.058426102584</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502319</v>
+        <v>3015.388025022997</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935978</v>
+        <v>3247.995525456657</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R4" t="n">
-        <v>1908.218833983214</v>
+        <v>3235.775364366699</v>
       </c>
       <c r="S4" t="n">
-        <v>1716.53294981004</v>
+        <v>3113.309601456909</v>
       </c>
       <c r="T4" t="n">
-        <v>1494.766334379567</v>
+        <v>3113.309601456909</v>
       </c>
       <c r="U4" t="n">
-        <v>1205.66346750521</v>
+        <v>3113.309601456909</v>
       </c>
       <c r="V4" t="n">
-        <v>950.9789792993232</v>
+        <v>2858.625113251022</v>
       </c>
       <c r="W4" t="n">
-        <v>661.5618092623627</v>
+        <v>2569.207943214061</v>
       </c>
       <c r="X4" t="n">
-        <v>433.5722583643453</v>
+        <v>2341.218392316044</v>
       </c>
       <c r="Y4" t="n">
-        <v>433.5722583643453</v>
+        <v>2120.425813172514</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1636.624422581789</v>
+        <v>1601.546535481797</v>
       </c>
       <c r="C5" t="n">
-        <v>1636.624422581789</v>
+        <v>1232.584018541385</v>
       </c>
       <c r="D5" t="n">
-        <v>1278.358723975039</v>
+        <v>874.3183199346347</v>
       </c>
       <c r="E5" t="n">
-        <v>892.5704713767946</v>
+        <v>488.5300673363904</v>
       </c>
       <c r="F5" t="n">
-        <v>481.5845665871869</v>
+        <v>77.54416254678286</v>
       </c>
       <c r="G5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>3104.520121052924</v>
       </c>
       <c r="U5" t="n">
-        <v>3009.337405520489</v>
+        <v>3104.520121052924</v>
       </c>
       <c r="V5" t="n">
-        <v>2678.274518176918</v>
+        <v>3104.520121052924</v>
       </c>
       <c r="W5" t="n">
-        <v>2325.505862906804</v>
+        <v>2751.75146578281</v>
       </c>
       <c r="X5" t="n">
-        <v>1952.040104645724</v>
+        <v>2378.28570752173</v>
       </c>
       <c r="Y5" t="n">
-        <v>1636.624422581789</v>
+        <v>1988.146375545919</v>
       </c>
     </row>
     <row r="6">
@@ -4620,28 +4620,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387309</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927783</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064585</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
         <v>160.1893859228007</v>
@@ -4650,46 +4650,46 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,43 +4699,43 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1071.910120335304</v>
+        <v>627.5394227759724</v>
       </c>
       <c r="C7" t="n">
-        <v>922.6774975139006</v>
+        <v>627.5394227759724</v>
       </c>
       <c r="D7" t="n">
-        <v>772.5608581015648</v>
+        <v>477.4227833636367</v>
       </c>
       <c r="E7" t="n">
-        <v>624.6477645191717</v>
+        <v>477.4227833636367</v>
       </c>
       <c r="F7" t="n">
-        <v>477.7578170212613</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O7" t="n">
         <v>1617.076751502319</v>
@@ -4756,19 +4756,19 @@
         <v>1615.697475415547</v>
       </c>
       <c r="U7" t="n">
-        <v>1326.594608541191</v>
+        <v>1326.59460854119</v>
       </c>
       <c r="V7" t="n">
-        <v>1071.910120335304</v>
+        <v>1326.59460854119</v>
       </c>
       <c r="W7" t="n">
-        <v>1071.910120335304</v>
+        <v>1037.177438504229</v>
       </c>
       <c r="X7" t="n">
-        <v>1071.910120335304</v>
+        <v>809.1878876062121</v>
       </c>
       <c r="Y7" t="n">
-        <v>1071.910120335304</v>
+        <v>809.1878876062121</v>
       </c>
     </row>
     <row r="8">
@@ -4778,40 +4778,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2047.583838282732</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="C8" t="n">
-        <v>1678.62132134232</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D8" t="n">
-        <v>1320.35562273557</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E8" t="n">
-        <v>934.5673701373257</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810551</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4829,25 +4829,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993393</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>2866.09759726723</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2535.034709923659</v>
+        <v>2752.998168088795</v>
       </c>
       <c r="W8" t="n">
-        <v>2182.266054653544</v>
+        <v>2400.229512818681</v>
       </c>
       <c r="X8" t="n">
-        <v>2182.266054653544</v>
+        <v>2026.763754557601</v>
       </c>
       <c r="Y8" t="n">
-        <v>2047.583838282732</v>
+        <v>1636.624422581789</v>
       </c>
     </row>
     <row r="9">
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>529.5785797246257</v>
+        <v>532.4548862703364</v>
       </c>
       <c r="C10" t="n">
-        <v>360.6423967967187</v>
+        <v>363.5187033424295</v>
       </c>
       <c r="D10" t="n">
-        <v>360.6423967967187</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="E10" t="n">
-        <v>212.7293032143256</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
         <v>66.51211643218342</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1837.464090846021</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U10" t="n">
-        <v>1548.361223971664</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="V10" t="n">
-        <v>1293.676735765777</v>
+        <v>1450.843444452132</v>
       </c>
       <c r="W10" t="n">
-        <v>1004.259565728817</v>
+        <v>1161.426274415171</v>
       </c>
       <c r="X10" t="n">
-        <v>932.0196236983955</v>
+        <v>933.436723517154</v>
       </c>
       <c r="Y10" t="n">
-        <v>711.2270445548654</v>
+        <v>714.1033511005761</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5018,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5027,22 +5027,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332388</v>
@@ -5054,28 +5054,28 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
         <v>3467.980956852889</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,31 +5112,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N12" t="n">
-        <v>1670.092171589158</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O12" t="n">
-        <v>2222.001901828445</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263525</v>
+        <v>990.5373202159259</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356181</v>
+        <v>821.601137288019</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232824</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408893</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429789</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578588</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
         <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>2264.108249235165</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1975.033022579363</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1836.866460342033</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1547.449290305073</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X13" t="n">
-        <v>1319.459739407055</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="Y13" t="n">
-        <v>1098.667160263525</v>
+        <v>990.5373202159259</v>
       </c>
     </row>
     <row r="14">
@@ -5267,19 +5267,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332388</v>
@@ -5291,34 +5291,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263526</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356194</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232836</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>2227.361618603202</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1972.677130397315</v>
+        <v>1647.826443164475</v>
       </c>
       <c r="W16" t="n">
-        <v>1683.259960360355</v>
+        <v>1358.409273127515</v>
       </c>
       <c r="X16" t="n">
-        <v>1455.270409462337</v>
+        <v>1130.419722229497</v>
       </c>
       <c r="Y16" t="n">
-        <v>1234.477830318807</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
     <row r="17">
@@ -5507,55 +5507,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,25 +5586,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1098.667160263526</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356194</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232836</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408905</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1977.461080510509</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1722.776592304622</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1722.776592304622</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>1494.787041406604</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y19" t="n">
-        <v>1273.994462263074</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="20">
@@ -5744,16 +5744,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5762,37 +5762,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,25 +5823,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>916.3099000622279</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C22" t="n">
-        <v>747.3737171343211</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D22" t="n">
-        <v>597.2570777219853</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E22" t="n">
-        <v>449.3439841395922</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F22" t="n">
-        <v>302.4540366416818</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>135.2579373565617</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>135.2579373565617</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910811</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570819</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853363</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832665</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832665</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2379.917379832665</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>2090.842153176863</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V22" t="n">
-        <v>1836.157664970976</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W22" t="n">
-        <v>1546.740494934015</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X22" t="n">
-        <v>1318.750944035998</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y22" t="n">
-        <v>1097.958364892468</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="23">
@@ -5963,34 +5963,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6005,34 +6005,34 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,25 +6060,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>280.8495004245705</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270447</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="26">
@@ -6212,34 +6212,34 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362674</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6251,10 +6251,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
         <v>4151.812499466572</v>
@@ -6297,25 +6297,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908938</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908938</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2254.869721166297</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T28" t="n">
-        <v>2035.268256189238</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="29">
@@ -6452,58 +6452,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,16 +6534,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908938</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908938</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2437.724555511392</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2254.869721166297</v>
+        <v>2345.91093085731</v>
       </c>
       <c r="T31" t="n">
-        <v>2035.268256189238</v>
+        <v>2126.309465880251</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>2126.309465880251</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1871.624977674364</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1582.207807637403</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="32">
@@ -6674,34 +6674,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6710,40 +6710,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797189</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6923,28 +6923,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
         <v>2950.898526355937</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C37" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H37" t="n">
         <v>151.373419438402</v>
@@ -7148,10 +7148,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004712</v>
@@ -7160,34 +7160,34 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,40 +7306,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319325</v>
+        <v>926.957531531933</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656824</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150023</v>
+        <v>656.964603115003</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942661</v>
       </c>
       <c r="F40" t="n">
         <v>411.2214559580113</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380729</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M40" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N40" t="n">
         <v>1785.769117656414</v>
@@ -7366,7 +7366,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W40" t="n">
         <v>1483.798285518751</v>
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7406,25 +7406,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111701</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7549,13 +7549,13 @@
         <v>782.5512955656819</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G43" t="n">
         <v>268.5553036345476</v>
@@ -7567,13 +7567,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7725,28 +7725,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>95.58405025273903</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>95.58405025273903</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G46" t="n">
         <v>268.5553036345476</v>
@@ -7807,10 +7807,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7834,10 +7834,10 @@
         <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V46" t="n">
         <v>1748.685508594055</v>
@@ -7846,7 +7846,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y46" t="n">
         <v>1084.076049400516</v>
@@ -22544,7 +22544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -22556,16 +22556,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>29.42344096330737</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22610,10 +22610,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>22.17437966060248</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22705,7 +22705,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -22714,13 +22714,13 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -22750,13 +22750,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>70.04719570582112</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>68.52792005074944</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -22771,7 +22771,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -23413,13 +23413,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819382</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>25.78270532855896</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,25 +23461,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>115.3527467088715</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>45.37941682720913</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23662,16 +23662,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,19 +23698,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>211.9838267404997</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>6.257951202384675</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23896,19 +23896,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465707</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>144.5956654067404</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23944,13 +23944,13 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>40.23897475306157</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,13 +24175,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24379,10 +24379,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>72.11969353038614</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24604,10 +24604,10 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>30.9575407388549</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24616,10 +24616,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24841,10 +24841,10 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,16 +24883,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>57.22910392194173</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>80.98465480592338</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25090,10 +25090,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25129,7 +25129,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25372,7 +25372,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>-4.709566198145672e-13</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25558,7 +25558,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>-7.247535904753022e-13</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1013399.349275002</v>
+        <v>1013399.349275003</v>
       </c>
     </row>
     <row r="3">
@@ -26323,34 +26323,34 @@
         <v>242143.9799070018</v>
       </c>
       <c r="F2" t="n">
-        <v>242143.9799070018</v>
+        <v>242143.9799070017</v>
       </c>
       <c r="G2" t="n">
         <v>242143.9799070018</v>
       </c>
       <c r="H2" t="n">
+        <v>242143.9799070019</v>
+      </c>
+      <c r="I2" t="n">
         <v>242143.9799070018</v>
-      </c>
-      <c r="I2" t="n">
-        <v>242143.9799070019</v>
       </c>
       <c r="J2" t="n">
         <v>242143.9799070018</v>
       </c>
       <c r="K2" t="n">
+        <v>242143.9799070017</v>
+      </c>
+      <c r="L2" t="n">
         <v>242143.9799070018</v>
       </c>
-      <c r="L2" t="n">
-        <v>242143.9799070019</v>
-      </c>
       <c r="M2" t="n">
+        <v>246312.5309592847</v>
+      </c>
+      <c r="N2" t="n">
         <v>246312.5309592848</v>
       </c>
-      <c r="N2" t="n">
-        <v>246312.5309592851</v>
-      </c>
       <c r="O2" t="n">
-        <v>246312.5309592851</v>
+        <v>246312.530959285</v>
       </c>
       <c r="P2" t="n">
         <v>246312.530959285</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073554</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>17295.44866092622</v>
+        <v>17295.44866092634</v>
       </c>
       <c r="C4" t="n">
-        <v>91573.95495316936</v>
+        <v>91573.95495316945</v>
       </c>
       <c r="D4" t="n">
-        <v>91573.95495316941</v>
+        <v>91573.95495316945</v>
       </c>
       <c r="E4" t="n">
         <v>12386.92018181813</v>
@@ -26430,7 +26430,7 @@
         <v>12386.92018181813</v>
       </c>
       <c r="G4" t="n">
-        <v>12386.9201818181</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="H4" t="n">
         <v>12386.92018181813</v>
@@ -26439,22 +26439,22 @@
         <v>12386.92018181813</v>
       </c>
       <c r="J4" t="n">
+        <v>12386.92018181818</v>
+      </c>
+      <c r="K4" t="n">
+        <v>12386.92018181814</v>
+      </c>
+      <c r="L4" t="n">
         <v>12386.92018181813</v>
       </c>
-      <c r="K4" t="n">
-        <v>12386.9201818181</v>
-      </c>
-      <c r="L4" t="n">
-        <v>12386.92018181809</v>
-      </c>
       <c r="M4" t="n">
-        <v>20377.77944491158</v>
+        <v>20377.7794449116</v>
       </c>
       <c r="N4" t="n">
-        <v>20377.77944491158</v>
+        <v>20377.77944491162</v>
       </c>
       <c r="O4" t="n">
-        <v>20377.77944491159</v>
+        <v>20377.7794449116</v>
       </c>
       <c r="P4" t="n">
         <v>20377.7794449116</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1246703.014824443</v>
+        <v>-1247028.359914725</v>
       </c>
       <c r="C6" t="n">
-        <v>46804.63544472236</v>
+        <v>46804.63544472228</v>
       </c>
       <c r="D6" t="n">
-        <v>46804.63544472252</v>
+        <v>46804.63544472224</v>
       </c>
       <c r="E6" t="n">
-        <v>-196777.9319060789</v>
+        <v>-196812.6698315144</v>
       </c>
       <c r="F6" t="n">
-        <v>128634.5299012765</v>
+        <v>128599.7919758408</v>
       </c>
       <c r="G6" t="n">
-        <v>128634.5299012766</v>
+        <v>128599.7919758409</v>
       </c>
       <c r="H6" t="n">
-        <v>128634.5299012766</v>
+        <v>128599.7919758409</v>
       </c>
       <c r="I6" t="n">
-        <v>128634.5299012766</v>
+        <v>128599.7919758409</v>
       </c>
       <c r="J6" t="n">
-        <v>-88896.67249600093</v>
+        <v>-88931.41042143667</v>
       </c>
       <c r="K6" t="n">
-        <v>128634.5299012765</v>
+        <v>128599.7919758408</v>
       </c>
       <c r="L6" t="n">
-        <v>128634.5299012766</v>
+        <v>128599.7919758408</v>
       </c>
       <c r="M6" t="n">
-        <v>18287.8897313143</v>
+        <v>18287.88973131412</v>
       </c>
       <c r="N6" t="n">
-        <v>122770.6356604581</v>
+        <v>122770.6356604578</v>
       </c>
       <c r="O6" t="n">
-        <v>122770.6356604581</v>
+        <v>122770.635660458</v>
       </c>
       <c r="P6" t="n">
-        <v>122770.6356604581</v>
+        <v>122770.635660458</v>
       </c>
     </row>
   </sheetData>
@@ -26716,16 +26716,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="3">
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26790,34 +26790,34 @@
         <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26938,7 +26938,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27543,19 +27543,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>85.01882053284857</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>80.04168117756298</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27591,7 +27591,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27613,10 +27613,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27628,13 +27628,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,13 +27667,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>94.23088837711292</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>73.97641341275812</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,19 +27771,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>19.50652450543879</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>49.40031093414153</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27792,7 +27792,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27831,13 +27831,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27853,7 +27853,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27871,7 +27871,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27910,16 +27910,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>324.9715853716616</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>252.9025444489494</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28014,19 +28014,19 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -28056,16 +28056,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28074,10 +28074,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>154.1921127789201</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>1.444614659682742</v>
       </c>
     </row>
     <row r="11">
@@ -28150,7 +28150,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -28263,7 +28263,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>1.319714707885093e-12</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -28630,7 +28630,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="18">
@@ -28989,7 +28989,7 @@
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>1.319714707885093e-12</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -29290,7 +29290,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29527,7 +29527,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="38">
@@ -30232,7 +30232,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
   </sheetData>
@@ -31039,7 +31039,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
         <v>44.86703772844668</v>
@@ -31048,40 +31048,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,46 +31118,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31200,43 +31200,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31276,7 +31276,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
         <v>44.86703772844668</v>
@@ -31285,40 +31285,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,46 +31355,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31437,43 +31437,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,10 +31829,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,37 +31841,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>620.1193660647499</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>468.3778278510275</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,31 +32066,31 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>361.7519118779092</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32099,16 +32099,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,31 +32303,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32339,13 +32339,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,10 +32540,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32552,19 +32552,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32576,13 +32576,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32707,34 +32707,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,31 +32777,31 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>326.7634969305192</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32813,13 +32813,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,31 +33014,31 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33050,13 +33050,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,10 +33251,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33263,16 +33263,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
         <v>398.7616643558013</v>
@@ -33287,13 +33287,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>734.2678383622658</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34445,31 +34445,31 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>732.4825987614915</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,25 +34775,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
         <v>159.2338966127272</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
         <v>159.2338966127272</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,25 +35489,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>477.9853321427316</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>334.4034204366973</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,7 +35720,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35729,16 +35729,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>219.1556674334648</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35747,7 +35747,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35966,16 +35966,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36203,16 +36203,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010465</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,22 +36434,22 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>188.9220579561602</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,25 +36668,25 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36914,13 +36914,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
         <v>256.1654199113569</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402476</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37470,7 +37470,7 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N37" t="n">
         <v>445.9107804819471</v>
@@ -37482,7 +37482,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37707,7 +37707,7 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N40" t="n">
         <v>445.9107804819471</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37944,13 +37944,13 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N43" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P43" t="n">
         <v>319.9164207986647</v>
@@ -38093,31 +38093,31 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>590.3485648394733</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38181,13 +38181,13 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N46" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
